--- a/app/outputs/results_triaged.xlsx
+++ b/app/outputs/results_triaged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>OO8</t>
+          <t>008</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,11 @@
           <t>1263864930</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>210814s2022    nyua   e b    000 0deng d</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,7 +577,11 @@
           <t>1264176422</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>210712s2022    maua     b    001 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -613,7 +621,11 @@
           <t>1302109579</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>220306t20222022paua     b    001 0 eng d</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -653,7 +665,11 @@
           <t>1260692166</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>210707s2022    nyu      b    001 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,7 +709,11 @@
           <t>1260692166</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>210707s2022    nyu      b    001 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -733,7 +753,11 @@
           <t>1273676026</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>220112t20222022iluab         000 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,7 +797,11 @@
           <t>1276902581</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>211007s2022    ilua     b    001 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,7 +841,11 @@
           <t>1289289257</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>220615t20222022nyu           001 0 eng d</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -853,7 +885,11 @@
           <t>1338303265</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>220725s2023    laua     b    001 0 eng</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -893,7 +929,2295 @@
           <t>1273668186</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>211007t20222022njua     b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>991004944003804651</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Inspector inspector / Jee Leong Koh.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PR9570.S5 K64 2022</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1289919188</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>211223t20222022enk           000 p eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>991004941113804651</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collective understanding, radicalism, and literary history, 1645-1742 / Melissa Mowry.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PR4321 .M69 2021</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1258071121</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>210630t20212021enka     b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>991004941013204651</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cultural memory, consciousness, and the modernist novel / Robert McParland.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PR801 .M37 2022</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1237349923</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>210212s2022    dcu      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>991004941111404651</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Romantic comedy / Trevor R. Griffiths.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PR635.L68 G75 2022</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1258652381</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>210809t20222022enka     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>991004941111204651</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The science of character : human objecthood and the ends of Victorian realism / S. Pearl Brilmyer.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PR461 .B73 2022</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1241244169</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>210716t20222022ilua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>991004941112004651</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The practical Renaissance : information culture and the quest for knowledge in early modern England, 1500-1640 / Donna A. Seger.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pre-publication Record, Upgrade</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PR428.K66 S44 2022</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1264172345</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>210812s2022    enkah    b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>991004935308604651</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>States of plague : reading Albert Camus in a pandemic / Alice Kaplan &amp; Laura Marris.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PQ2605.A3734 P4358 2022</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1291607005</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>211221t20222022ilu      b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>991004943913804651</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Staging America : the artistic legacy of the Provincetown Players / Jeffery Kennedy.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PN2297.P7 K44 2023</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1309957750</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>220919s2023    alua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>991004933914104651</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Orlando / Russell Sheaffer.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PN1997.O6433 S54 2022</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1309129936</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>220407t20222022quca     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>991004942815404651</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Love and let die : James Bond, the Beatles, and the British psyche / John Higgs.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DA589.4 .H54 2023</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1362536588</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>230119t20232023nyu      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>991004944011304651</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>T.O.B.A. time Black Vaudeville and the Theater Owners' Booking Association in Jazz-Age America / Michelle R. Scott.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PN1580 .S36 2023</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1344332894</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>220912s2023    ilua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>991004944013004651</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Future homes : sustainable innovative designs / Avi Friedman, with Charles Gregoire.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NA2542.36 .F745 2022</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1351566454</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>221123s2022    vraae    b    000 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>991004941013404651</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Counterpractice : psychoanalysis, politics and the art of French feminism / Rakhee Balaram.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N6848 .B25 2021</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1263813163</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>210730t20212021enkacfh  b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>991004941110704651</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Visual culture and the forensic : culture, memory, ethics / David Houston Jones.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N70 .J644 2022</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1268360613</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>210924s2022    nyua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>991004944006504651</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>The worm in the apple : a history of the Conservative Party and Europe from Churchill to Cameron / Christopher Tugendaht.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>JN1129.C7 T84 2022</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1305915238</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>220326t20222022enk      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>991004944006204651</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Adventurers : the improbable rise of the East India Company, 1550-1650 / David Howarth.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Manually Review: Missing size</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>HF486.E6 H69 2023</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1338674367</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>211202t20232023ctuab    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>991004944004904651</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electricity capacity markets / Todd S. Aagaard,Villanova University, Charles Widger School of Law, Andrew N. Kleit, The Pennsylvania State University (Energy and Environmental Economics).</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Pre-publication Record, Upgrade</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Manually Review: Missing size</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>HD9685.A2 A24 2022</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1281582335</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>220112s2022    enk      b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>991004943915404651</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Architectures of hope : infrastructural citizenship and class mobility in Brazil's public housing / Moisés Kopper.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>HD7287.82.B62 P675 2022</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1286366931</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>220802t20222022miuab    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>991004943910604651</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Weaponizing water : water stress and Islamic extremist violence in Africa and the Middle East / Marcus D. King.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>HD1698.K3 K54 2023</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1336955111</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>220825t20232023couab    b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>991004935515204651</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>The end of the world is just the beginning : mapping the collapse of globalization / Peter Zeihan.</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>HD82 .Z435 2022</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1304833686</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>220316s2022    nyuabd        001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>991004944009804651</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>European economic governance after the Eurozone and COVID-19 crises / edited by Ioannis Papadopoulos.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>HC240.9.D45 E97 2022</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1290014029</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>211225t20222022enk           000 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>991004944005004651</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Edible economics : a hungry economist explains the world / Ha-Joon Chang.</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>HB74.F66 C495 2023</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1314431601</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>220507t20232022nyu    e b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>991004935308504651</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The global lab : inequality, technology, and the new experimental movement / Adam Fejerskov.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>H62.5.D4 F45 2022</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1343947548</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>220105s2022    enk      b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>991004934515104651</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cornerstone at the confluence : navigating the Colorado River Compact's next century / edited by Jason Anthony Robison.</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>F788 .C775 2022</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1313943363</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>220415t20222022azuab    b    001 0 eng c</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>991004941113104651</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>The Jews of Long Island : 1705-1918 / Brad Kolodny.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>F127.L8 K65 2022</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1251739409</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>210511s2022    nyua     b    000 0deng</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>991004941113404651</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>The Great Boston Fire : the inferno that nearly incinerated the city / Stephanie Schorow.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>F73.5 .S36 2022</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1268544838</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>210907s2022    ctua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>991004941112104651</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>The papers of Francis Bernard : Governor of colonial Massachusetts, 1760-69 / edited by Colin Nicolson.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Multivolume title; create items</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>F67 .B37 2007</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>226485315</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>080430m20072022mauabch  b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>991004944011704651</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Saying it loud : 1966--the year Black power challenged the civil rights movement / Mark Whitaker.</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>E185.615 .W445 2023</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1365769400</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>230126s2023    nyuaf    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>991004941114804651</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>The Ottomans : a cultural legacy / Diana Darke.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DR486 .D265 2022</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1343155256</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>220830t20222022enka   e b    001 0deng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>991004942815404651</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Love and let die : James Bond, the Beatles, and the British psyche / John Higgs.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DA589.4 .H54 2023</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1362536588</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>230119t20232023nyu      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>991004943913404651</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Two houses, two kingdoms : a history of France and England, 1100-1300 / Catherine Hanley.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DA205 .H36 2022</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1305437902</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>220111s2022    ctuab    b    001 0deng</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>991004943911304651</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>The role of birds in World War One : how ornithology helped to win the Great War / Nicholas Milton.</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>D639.A65 M55 2022</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1306275888</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>220330t20222022enkaf    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>991004935515004651</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Misfire : the Sarajevo assassination and the winding road to World War I / Paul Miller-Melamed.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>D513 .M55 2022</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1250307709</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>210511t20222022nyuab    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>991004941112504651</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The Normans : power, conquest and culture in 11th-century Europe / Judith A. Green.</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>D148 .G74 2022</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1261305386</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>210527t20222022ctuab    b    001 0deng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>991004941012704651</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Exploring big historical data : the historian's macroscope / Shawn Graham, Ian Milligan, Scott B. Weingart, Kim Martin.</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>D16.117 .G73 2022</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1269422323</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>210911s2022    njuab    b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>991004941012204651</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Genealogy and social history : understanding the global past through family case studies / edited by Eric Martone.</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>D16 .G46 2022</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1290014425</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>211225t20222022enkabcj  b    000 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>991004941013504651</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>The control of the past : Herbert Butterfield and the pitfalls of official history / Patrick Salmon.</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>D15.B86 S35 2021</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1276796684</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>211007t20212021enk      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>991004944011804651</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>The reopening of the Western mind : the resurgence of intellectual life from the end of antiquity to the dawn of the Enlightenment / Charles Freeman.</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>CB351 .F726 2023</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1252764118</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>210801t20232021nyua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>991004935310904651</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>The truth about clergy sexual abuse : clarifying the facts and the causes / Bill Donohue.</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>BX1912.9 .D67 2021</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1284814026</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>210205s2021    cau      b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>991004922912704651</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>The power of religion in late antiquity / edited by Andrew Cain and Noel Lenski, University of Colorado at Boulder, USA.</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>BR162.3 .P69 2018</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1103218785</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>190603s2018    enkab    b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>991004943914104651</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jacob's younger brother : Christian-Jewish relations after Vatican II / Karma Ben-Johanan.</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BM535 .B44513 2022</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1266219780</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>210916t20222022mau      b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>991004944000904651</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>The community rules from Qumran : a commentary / Charlotte Hempel.</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Manually Review: Missing size</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>BM488.M3 H46 2023</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1336485478</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>220719t20232020mnu      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>991004923013904651</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Everyday Hinduism / Joyce Burkhalter Flueckiger.</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>BL1202 .F58 2015</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>894935287</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>150202s2015    enkab    b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>991004943912204651</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>At work in the ruins : finding our place in the time of science, climate change, pandemics and all the other emergencies / Dougald Hine.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>BF575.D45 H56 2023</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1346533945</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>221201s2023    vtu      b    000 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>991004941012404651</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Freud's pandemics : surviving global war, spanish flu and the nazis / Brett Kahr.</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>BF109.F74 K35 2021</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1263865104</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>210814s2021    enk      b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>991004941014304651</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>African psychology : the emergence of a tradition / Augustine Nwoye.</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>BF108.A3 N96 2022</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1287749631</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>211123s2022    nyua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>991004944013204651</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fair share : senior activism, tiny publics, and the culture of resistance / Gary Alan Fine.</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>HQ1064.U6 I324 2023</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1304341306</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>220412t20232023ilua     b    001 0 eng</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>991004944004704651</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>George A. Kubler and the shape of art history / Thomas F. Reese.</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N7483.K76 R44 2023</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1346534043</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>220927s2023    caua     b    001 0beng</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>991004944004604651</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>I saw death coming : a history of terror and survival in the war against Reconstruction / Kidada E. Williams.</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>E185.2 .W55 2023</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1260191937</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>210714s2023    nyub     b    001 0 eng d</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>991004943913604651</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Travels with Tocqueville beyond America / Jeremy Jennings.</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>High quality Record, Minimal Review</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Change location to floor 2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No edits: Regular size</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC36.98.T63 J46 2023</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1334726457</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>220621t20232023maua     b    001 0deng</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
